--- a/Timesheet/Gengchao Yang/MCI-Timesheet_Gengchao.xlsx
+++ b/Timesheet/Gengchao Yang/MCI-Timesheet_Gengchao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoA\MCI_Project\LY1\Timesheet\Gengchao Yang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BDA41-404A-40C8-9EB8-8B71E09DEF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4257B7-3034-4CA4-AAAE-43948790DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Check spelling, grammar, and Formatting whole Draft Plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Meeting to discuss the Business Case and Draft Plan. </t>
+  </si>
+  <si>
+    <t>Group Meeting to discuss the Business Case &amp; Draft Plan and task allocation.</t>
   </si>
 </sst>
 </file>
@@ -3409,7 +3415,7 @@
   <dimension ref="A2:AW13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3494,7 +3500,9 @@
         <f>(D6-C6)*24</f>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -3676,7 +3684,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -3735,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
